--- a/InputData/elec/SLF/System Load Factor.xlsx
+++ b/InputData/elec/SLF/System Load Factor.xlsx
@@ -44,9 +44,6 @@
     <t>Electricity Data</t>
   </si>
   <si>
-    <t>Noncoincident peak load, 2002-2012 actual</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/electricity/annual/xls/epa_08_06_a.xlsx</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Noncoincident peak load, 2003-2013 actual</t>
   </si>
 </sst>
 </file>
@@ -381,9 +381,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -402,19 +399,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,12 +780,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -801,14 +801,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -818,23 +818,23 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>2001</v>
@@ -884,29 +884,29 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>3736644</v>
@@ -963,81 +963,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1054,14 +1054,14 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1074,677 +1074,677 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="Q5" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="Q6" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>2003</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>40475</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>55018</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>431349</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>98487</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>53566</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>56988</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6">
         <v>28831</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
         <v>153110</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>40367</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>59996</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>122537</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>709375</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>2004</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>42383</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>52549</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>427860</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>95300</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>52049</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>53439</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6">
         <v>29351</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6">
         <v>157615</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>40106</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>58531</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>123136</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>704459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>2005</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>46396</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>58960</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>462550</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6">
         <v>39918</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6">
         <v>190200</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>190705</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>41727</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>60210</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>130760</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>758876</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>2006</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45751</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>63241</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>476048</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6">
         <v>42194</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6">
         <v>191920</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>199052</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>42882</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>62339</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>142096</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>789475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>2007</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>46676</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>58314</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>475660</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6">
         <v>41684</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6">
         <v>181700</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>209109</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>43167</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>62188</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>139389</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>782227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>2008</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44836</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>58543</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>452087</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6">
         <v>39677</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6">
         <v>169155</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>199779</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>43476</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>62174</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>134829</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>752470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>2009</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>46550</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>55944</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>431701</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6">
         <v>37963</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6">
         <v>161241</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>191032</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>41465</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>63518</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>128245</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>725958</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>2010</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45722</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>60554</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>466543</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6">
         <v>4598</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>108346</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="6">
         <v>136465</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="L14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="6">
         <v>164058</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>53077</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>65776</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>129352</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>767948</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>2011</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>44968</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>63390</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>486131</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6">
         <v>4726</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>102819</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6">
         <v>158043</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6">
         <v>164726</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>55817</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>68416</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>119565</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>782469</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>2012</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>44338</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>58319</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>468092</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6">
         <v>5051</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>96769</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="6">
         <v>154339</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="L16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6">
         <v>161687</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>50246</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>66548</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>130465</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>767762</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>2013</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>44653</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>61335</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>452846</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6">
         <v>4755</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>121124</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="6">
         <v>157509</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="L17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="6">
         <v>121810</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>47647</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>67245</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>132875</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>758953</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="A18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>56</v>
+      <c r="A19" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1761,14 +1761,14 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" ht="39" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1781,673 +1781,673 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="11" t="s">
+      <c r="N20" s="14"/>
+      <c r="O20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="Q20" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="N21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="Q21" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5">
         <v>36841</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>48079</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>364232</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>86332</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>45625</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>41719</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="6">
+        <v>24134</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="6">
+        <v>137972</v>
+      </c>
+      <c r="N22" s="6">
+        <v>28450</v>
+      </c>
+      <c r="O22" s="5">
+        <v>42702</v>
+      </c>
+      <c r="P22" s="5">
+        <v>102020</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>593874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44839</v>
+      </c>
+      <c r="C23" s="5">
+        <v>48176</v>
+      </c>
+      <c r="D23" s="5">
+        <v>378987</v>
+      </c>
+      <c r="E23" s="6">
+        <v>91800</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45905</v>
+      </c>
+      <c r="G23" s="6">
+        <v>42929</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6">
+        <v>24526</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="6">
+        <v>144337</v>
+      </c>
+      <c r="N23" s="6">
+        <v>29490</v>
+      </c>
+      <c r="O23" s="5">
+        <v>44010</v>
+      </c>
+      <c r="P23" s="5">
+        <v>102689</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>618701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42657</v>
+      </c>
+      <c r="C24" s="5">
+        <v>46828</v>
+      </c>
+      <c r="D24" s="5">
+        <v>381246</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="6">
+        <v>33748</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6">
+        <v>151600</v>
+      </c>
+      <c r="M24" s="6">
+        <v>164638</v>
+      </c>
+      <c r="N24" s="6">
+        <v>31260</v>
+      </c>
+      <c r="O24" s="5">
+        <v>48141</v>
+      </c>
+      <c r="P24" s="5">
+        <v>107493</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>626365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42526</v>
+      </c>
+      <c r="C25" s="5">
+        <v>46697</v>
+      </c>
+      <c r="D25" s="5">
+        <v>390263</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="6">
+        <v>34677</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6">
+        <v>149631</v>
+      </c>
+      <c r="M25" s="6">
+        <v>175163</v>
+      </c>
+      <c r="N25" s="6">
+        <v>30792</v>
+      </c>
+      <c r="O25" s="5">
+        <v>50402</v>
+      </c>
+      <c r="P25" s="5">
+        <v>111093</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>640981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
+        <v>41701</v>
+      </c>
+      <c r="C26" s="5">
+        <v>46795</v>
+      </c>
+      <c r="D26" s="5">
+        <v>386301</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="6">
+        <v>33191</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6">
+        <v>141900</v>
+      </c>
+      <c r="M26" s="6">
+        <v>179888</v>
+      </c>
+      <c r="N26" s="6">
+        <v>31322</v>
+      </c>
+      <c r="O26" s="5">
+        <v>50408</v>
+      </c>
+      <c r="P26" s="5">
+        <v>112700</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>637905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45275</v>
+      </c>
+      <c r="C27" s="5">
+        <v>46043</v>
+      </c>
+      <c r="D27" s="5">
+        <v>390829</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="6">
+        <v>36029</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6">
+        <v>142395</v>
+      </c>
+      <c r="M27" s="6">
+        <v>179596</v>
+      </c>
+      <c r="N27" s="6">
+        <v>32809</v>
+      </c>
+      <c r="O27" s="5">
+        <v>47806</v>
+      </c>
+      <c r="P27" s="5">
+        <v>113605</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>643557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>53022</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44864</v>
+      </c>
+      <c r="D28" s="5">
+        <v>405176</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="6">
+        <v>35351</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6">
+        <v>143827</v>
+      </c>
+      <c r="M28" s="6">
+        <v>193135</v>
+      </c>
+      <c r="N28" s="6">
+        <v>32863</v>
+      </c>
+      <c r="O28" s="5">
+        <v>56191</v>
+      </c>
+      <c r="P28" s="5">
+        <v>109565</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>668818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>46135</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45712</v>
+      </c>
+      <c r="D29" s="5">
+        <v>400589</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5069</v>
+      </c>
+      <c r="I29" s="6">
+        <v>86728</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="6">
+        <v>115535</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="6">
+        <v>152030</v>
+      </c>
+      <c r="N29" s="6">
+        <v>41226</v>
+      </c>
+      <c r="O29" s="5">
+        <v>57315</v>
+      </c>
+      <c r="P29" s="5">
+        <v>101668</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>651418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5">
+        <v>40117</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45234</v>
+      </c>
+      <c r="D30" s="5">
+        <v>404280</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4803</v>
+      </c>
+      <c r="I30" s="6">
+        <v>86844</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="6">
+        <v>122563</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="6">
+        <v>150850</v>
+      </c>
+      <c r="N30" s="6">
+        <v>39220</v>
+      </c>
+      <c r="O30" s="5">
+        <v>50100</v>
+      </c>
+      <c r="P30" s="5">
+        <v>108459</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>648190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5">
+        <v>36409</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45545</v>
+      </c>
+      <c r="D31" s="5">
+        <v>390818</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5168</v>
+      </c>
+      <c r="I31" s="6">
+        <v>74430</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="6">
+        <v>122566</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="6">
+        <v>153738</v>
+      </c>
+      <c r="N31" s="6">
+        <v>34916</v>
+      </c>
+      <c r="O31" s="5">
+        <v>46909</v>
+      </c>
+      <c r="P31" s="5">
+        <v>101706</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>621387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="7">
-        <v>24134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="7">
-        <v>137972</v>
-      </c>
-      <c r="N22" s="7">
-        <v>28450</v>
-      </c>
-      <c r="O22" s="6">
-        <v>42702</v>
-      </c>
-      <c r="P22" s="6">
-        <v>102020</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>593874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6">
-        <v>44839</v>
-      </c>
-      <c r="C23" s="6">
-        <v>48176</v>
-      </c>
-      <c r="D23" s="6">
-        <v>378987</v>
-      </c>
-      <c r="E23" s="7">
-        <v>91800</v>
-      </c>
-      <c r="F23" s="7">
-        <v>45905</v>
-      </c>
-      <c r="G23" s="7">
-        <v>42929</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="7">
-        <v>24526</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="7">
-        <v>144337</v>
-      </c>
-      <c r="N23" s="7">
-        <v>29490</v>
-      </c>
-      <c r="O23" s="6">
-        <v>44010</v>
-      </c>
-      <c r="P23" s="6">
-        <v>102689</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>618701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="6">
-        <v>42657</v>
-      </c>
-      <c r="C24" s="6">
-        <v>46828</v>
-      </c>
-      <c r="D24" s="6">
-        <v>381246</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="7">
-        <v>33748</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7">
-        <v>151600</v>
-      </c>
-      <c r="M24" s="7">
-        <v>164638</v>
-      </c>
-      <c r="N24" s="7">
-        <v>31260</v>
-      </c>
-      <c r="O24" s="6">
-        <v>48141</v>
-      </c>
-      <c r="P24" s="6">
-        <v>107493</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>626365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6">
-        <v>42526</v>
-      </c>
-      <c r="C25" s="6">
-        <v>46697</v>
-      </c>
-      <c r="D25" s="6">
-        <v>390263</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="7">
-        <v>34677</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7">
-        <v>149631</v>
-      </c>
-      <c r="M25" s="7">
-        <v>175163</v>
-      </c>
-      <c r="N25" s="7">
-        <v>30792</v>
-      </c>
-      <c r="O25" s="6">
-        <v>50402</v>
-      </c>
-      <c r="P25" s="6">
-        <v>111093</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>640981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6">
-        <v>41701</v>
-      </c>
-      <c r="C26" s="6">
-        <v>46795</v>
-      </c>
-      <c r="D26" s="6">
-        <v>386301</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="7">
-        <v>33191</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7">
-        <v>141900</v>
-      </c>
-      <c r="M26" s="7">
-        <v>179888</v>
-      </c>
-      <c r="N26" s="7">
-        <v>31322</v>
-      </c>
-      <c r="O26" s="6">
-        <v>50408</v>
-      </c>
-      <c r="P26" s="6">
-        <v>112700</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>637905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6">
-        <v>45275</v>
-      </c>
-      <c r="C27" s="6">
-        <v>46043</v>
-      </c>
-      <c r="D27" s="6">
-        <v>390829</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="7">
-        <v>36029</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="7">
-        <v>142395</v>
-      </c>
-      <c r="M27" s="7">
-        <v>179596</v>
-      </c>
-      <c r="N27" s="7">
-        <v>32809</v>
-      </c>
-      <c r="O27" s="6">
-        <v>47806</v>
-      </c>
-      <c r="P27" s="6">
-        <v>113605</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>643557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>53022</v>
-      </c>
-      <c r="C28" s="6">
-        <v>44864</v>
-      </c>
-      <c r="D28" s="6">
-        <v>405176</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="7">
-        <v>35351</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="7">
-        <v>143827</v>
-      </c>
-      <c r="M28" s="7">
-        <v>193135</v>
-      </c>
-      <c r="N28" s="7">
-        <v>32863</v>
-      </c>
-      <c r="O28" s="6">
-        <v>56191</v>
-      </c>
-      <c r="P28" s="6">
-        <v>109565</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>668818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <v>46135</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45712</v>
-      </c>
-      <c r="D29" s="6">
-        <v>400589</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5069</v>
-      </c>
-      <c r="I29" s="7">
-        <v>86728</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="7">
-        <v>115535</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="7">
-        <v>152030</v>
-      </c>
-      <c r="N29" s="7">
-        <v>41226</v>
-      </c>
-      <c r="O29" s="6">
-        <v>57315</v>
-      </c>
-      <c r="P29" s="6">
-        <v>101668</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>651418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6">
-        <v>40117</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45234</v>
-      </c>
-      <c r="D30" s="6">
-        <v>404280</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="7">
-        <v>4803</v>
-      </c>
-      <c r="I30" s="7">
-        <v>86844</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="7">
-        <v>122563</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="7">
-        <v>150850</v>
-      </c>
-      <c r="N30" s="7">
-        <v>39220</v>
-      </c>
-      <c r="O30" s="6">
-        <v>50100</v>
-      </c>
-      <c r="P30" s="6">
-        <v>108459</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>648190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="6">
-        <v>36409</v>
-      </c>
-      <c r="C31" s="6">
-        <v>45545</v>
-      </c>
-      <c r="D31" s="6">
-        <v>390818</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5168</v>
-      </c>
-      <c r="I31" s="7">
-        <v>74430</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7">
-        <v>122566</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="7">
-        <v>153738</v>
-      </c>
-      <c r="N31" s="7">
-        <v>34916</v>
-      </c>
-      <c r="O31" s="6">
-        <v>46909</v>
-      </c>
-      <c r="P31" s="6">
-        <v>101706</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>621387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>38701</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>47186</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>419610</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="E32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="6">
         <v>5304</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>109400</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="J32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="6">
         <v>140510</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="L32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="6">
         <v>125229</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>39168</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>57256</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>110765</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>673518</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="A33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2467,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2479,20 +2479,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2004</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="11">
         <f>HLOOKUP(A2,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>453259.70319634705</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>704459</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2/C2</f>
         <v>0.64341530620851894</v>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       <c r="A3">
         <v>2005</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="11">
         <f>HLOOKUP(A3,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>462947.83105022833</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>758876</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.61004410608614357</v>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       <c r="A4">
         <v>2006</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <f>HLOOKUP(A4,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>464007.07762557076</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>789475</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.58774131875685842</v>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       <c r="A5">
         <v>2007</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <f>HLOOKUP(A5,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>474514.2694063927</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>782227</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.60661965056996592</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       <c r="A6">
         <v>2008</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <f>HLOOKUP(A6,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>470249.77168949769</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>752470</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.62494155473241153</v>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="A7">
         <v>2009</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <f>HLOOKUP(A7,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>450951.0273972603</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>725958</v>
       </c>
       <c r="D7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.62118060190432545</v>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <f>HLOOKUP(A8,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>470897.26027397258</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>767948</v>
       </c>
       <c r="D8">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.61318899231975676</v>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       <c r="A9">
         <v>2011</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <f>HLOOKUP(A9,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>468052.62557077623</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>782469</v>
       </c>
       <c r="D9">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.59817401784706647</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
       <c r="A10">
         <v>2012</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <f>HLOOKUP(A10,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
         <v>462073.63013698632</v>
       </c>
@@ -2637,9 +2637,29 @@
         <v>767762</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.60184488179538231</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="11">
+        <f>HLOOKUP(A11,Generation!$D$5:$R$8,4,FALSE)*1000/8760</f>
+        <v>464151.14155251143</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,'Peak Load'!$A$7:$Q$17,17,FALSE)</f>
+        <v>758953</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="1">B11/C11</f>
+        <v>0.61156770123118487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2659,16 +2679,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <f>AVERAGE('System Load Factor by Year'!D2:D10)</f>
-        <v>0.61190560335782551</v>
+        <f>AVERAGE('System Load Factor by Year'!D:D)</f>
+        <v>0.61187181314516148</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/SLF/System Load Factor.xlsx
+++ b/InputData/elec/SLF/System Load Factor.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\SLF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="System Load Factor by Year" sheetId="6" r:id="rId4"/>
     <sheet name="SLF" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
   <si>
     <t>SLF System Load Factor</t>
   </si>
@@ -222,11 +227,20 @@
   <si>
     <t>Noncoincident peak load, 2003-2013 actual</t>
   </si>
+  <si>
+    <t>System Load Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable represents the system load factor - the ratio of the average load over a given period to the peak load</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -425,6 +439,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -472,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,21 +733,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="63.625" customWidth="1"/>
+    <col min="2" max="2" width="63.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -738,58 +757,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -799,34 +829,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="35.86328125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -882,7 +912,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -890,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -898,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -967,12 +997,12 @@
       <selection activeCell="A33" sqref="A33:Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>59</v>
       </c>
@@ -993,7 +1023,7 @@
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -1014,7 +1044,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
@@ -1035,7 +1065,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -1056,7 +1086,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>54</v>
       </c>
@@ -1085,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="52.9" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -1138,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>2003</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>709375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>2004</v>
       </c>
@@ -1244,7 +1274,7 @@
         <v>704459</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>2005</v>
       </c>
@@ -1297,7 +1327,7 @@
         <v>758876</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>2006</v>
       </c>
@@ -1350,7 +1380,7 @@
         <v>789475</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>2007</v>
       </c>
@@ -1403,7 +1433,7 @@
         <v>782227</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>2008</v>
       </c>
@@ -1456,7 +1486,7 @@
         <v>752470</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>2009</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>725958</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>2010</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>767948</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>2011</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>782469</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>2012</v>
       </c>
@@ -1668,7 +1698,7 @@
         <v>767762</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>2013</v>
       </c>
@@ -1721,7 +1751,7 @@
         <v>758953</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1772,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1793,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="52.9" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
@@ -1845,7 +1875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>593874</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1981,7 @@
         <v>618701</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2034,7 @@
         <v>626365</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2087,7 @@
         <v>640981</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2140,7 @@
         <v>637905</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2193,7 @@
         <v>643557</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>668818</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2269,7 +2299,7 @@
         <v>651418</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2352,7 @@
         <v>648190</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2405,7 @@
         <v>621387</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2458,7 @@
         <v>673518</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
@@ -2471,13 +2501,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>62</v>
       </c>
@@ -2488,7 +2518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -2505,7 +2535,7 @@
         <v>0.64341530620851894</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -2522,7 +2552,7 @@
         <v>0.61004410608614357</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -2539,7 +2569,7 @@
         <v>0.58774131875685842</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -2556,7 +2586,7 @@
         <v>0.60661965056996592</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -2573,7 +2603,7 @@
         <v>0.62494155473241153</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -2590,7 +2620,7 @@
         <v>0.62118060190432545</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -2607,7 +2637,7 @@
         <v>0.61318899231975676</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -2624,7 +2654,7 @@
         <v>0.59817401784706647</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -2641,7 +2671,7 @@
         <v>0.60184488179538231</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -2658,7 +2688,7 @@
         <v>0.61156770123118487</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
     </row>
   </sheetData>
@@ -2673,16 +2703,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
